--- a/Data_Sources.xlsx
+++ b/Data_Sources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsey.huntzberry/Documents/Website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsey.huntzberry/Documents/R_Class_Meetup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAF2A9A8-954C-3241-A2FB-89B827B4D3BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D45827-E4DB-874A-B143-B2C55FC9AF3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="960" windowWidth="27140" windowHeight="15780" xr2:uid="{9B5D6480-A5D3-4147-A11D-2FD3121FBF0A}"/>
+    <workbookView xWindow="1280" yWindow="960" windowWidth="27140" windowHeight="10200" xr2:uid="{9B5D6480-A5D3-4147-A11D-2FD3121FBF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -82,7 +82,35 @@
     <t>Gapminder</t>
   </si>
   <si>
-    <t>world_data_gapminder.csv</t>
+    <t>world_data_merged.csv
+world_data_gapminder.csv</t>
+  </si>
+  <si>
+    <t>schooling_boxplot_data.csv</t>
+  </si>
+  <si>
+    <t>health_insurance_expansion_data.csv</t>
+  </si>
+  <si>
+    <t>austin_water_quality_2017-2018.csv</t>
+  </si>
+  <si>
+    <t>City of Austin Open Data Portal</t>
+  </si>
+  <si>
+    <t>https://data.austintexas.gov/Environment/Water-Quality-Sampling-Data/5tye-7ray</t>
+  </si>
+  <si>
+    <t>United States Department of Agriculture Economic Research Service</t>
+  </si>
+  <si>
+    <t>ruralurbancodes2013.csv; Rural-Urban Continuum Codes (County-Level Rural/Metro Classification</t>
+  </si>
+  <si>
+    <t>US_census_data.csv</t>
+  </si>
+  <si>
+    <t>https://www.ers.usda.gov/data-products/rural-urban-continuum-codes/</t>
   </si>
 </sst>
 </file>
@@ -156,9 +184,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -166,12 +193,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -488,20 +529,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170CEBDC-9CA5-D648-A1CA-81412721BC1C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="64" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -516,7 +558,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -527,59 +569,106 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
+  <mergeCells count="4">
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{EEA93141-0ACC-3847-BDA6-D7840798A834}"/>
     <hyperlink ref="C3" r:id="rId2" display="https://www.cdc.gov/drugoverdose/maps/rxrate-maps.html" xr:uid="{E1B6583F-4412-4846-BA3A-CF6AFC8253E5}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{BDCB7C96-8E49-D944-9B30-663F05AD6735}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{65CC9490-C6C1-E14C-9D5A-E66B3A8E04A4}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{65CC9490-C6C1-E14C-9D5A-E66B3A8E04A4}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{3C685A89-3424-3C40-89E0-980E79DAF76A}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{C467010A-2450-024F-B56E-BC63B3694ADC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data_Sources.xlsx
+++ b/Data_Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsey.huntzberry/Documents/R_Class_Meetup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D45827-E4DB-874A-B143-B2C55FC9AF3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA45F30-36F5-7D47-BECA-943A3D67A4C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="960" windowWidth="27140" windowHeight="10200" xr2:uid="{9B5D6480-A5D3-4147-A11D-2FD3121FBF0A}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>health_insurance_expansion_data.csv</t>
   </si>
   <si>
-    <t>austin_water_quality_2017-2018.csv</t>
-  </si>
-  <si>
     <t>City of Austin Open Data Portal</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>https://www.ers.usda.gov/data-products/rural-urban-continuum-codes/</t>
+  </si>
+  <si>
+    <t>austin_water_quality_2018.csv</t>
   </si>
 </sst>
 </file>
@@ -193,26 +193,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,26 +531,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170CEBDC-9CA5-D648-A1CA-81412721BC1C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="64" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="35.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="64" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -580,10 +580,10 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -591,24 +591,24 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -616,43 +616,43 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Sources.xlsx
+++ b/Data_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsey.huntzberry/Documents/R_Class_Meetup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA45F30-36F5-7D47-BECA-943A3D67A4C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8C0C53-D8A2-324C-89B2-1BC14BE105AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="960" windowWidth="27140" windowHeight="10200" xr2:uid="{9B5D6480-A5D3-4147-A11D-2FD3121FBF0A}"/>
+    <workbookView xWindow="480" yWindow="2020" windowWidth="27140" windowHeight="10200" xr2:uid="{9B5D6480-A5D3-4147-A11D-2FD3121FBF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t>austin_water_quality_2018.csv</t>
+  </si>
+  <si>
+    <t>illicit_drug_use_by_state.csv</t>
+  </si>
+  <si>
+    <t>National Survey on Drug Use and Health (NSDUH) from Substance Abuse and Mental Health Services Administration (SAMHSA)</t>
+  </si>
+  <si>
+    <t>https://www.samhsa.gov/data/all-reports?f[]=field_report_and_document_type:6461&amp;f[]=field_samhsa_survey:6511&amp;sort=field_date_printed_on_report&amp;order=desc&amp;items_per_page=15</t>
+  </si>
+  <si>
+    <t>tedsa_puf_2017.csv</t>
+  </si>
+  <si>
+    <t>https://www.datafiles.samhsa.gov/study-series/treatment-episode-data-set-admissions-teds-nid13518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment Episodes Data Set (TEDS) Admissions from from Substance Abuse and Mental Health Services Administration (SAMHSA) </t>
   </si>
 </sst>
 </file>
@@ -184,12 +202,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -529,28 +546,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170CEBDC-9CA5-D648-A1CA-81412721BC1C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="64" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="64" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -561,7 +578,7 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -572,7 +589,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -580,10 +597,10 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -591,24 +608,24 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -616,22 +633,22 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -640,7 +657,7 @@
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -648,11 +665,33 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -669,6 +708,8 @@
     <hyperlink ref="C7" r:id="rId4" xr:uid="{65CC9490-C6C1-E14C-9D5A-E66B3A8E04A4}"/>
     <hyperlink ref="C12" r:id="rId5" xr:uid="{3C685A89-3424-3C40-89E0-980E79DAF76A}"/>
     <hyperlink ref="C11" r:id="rId6" xr:uid="{C467010A-2450-024F-B56E-BC63B3694ADC}"/>
+    <hyperlink ref="C13" r:id="rId7" display="https://www.samhsa.gov/data/all-reports?f%5b%5d=field_report_and_document_type:6461&amp;f%5b%5d=field_samhsa_survey:6511&amp;sort=field_date_printed_on_report&amp;order=desc&amp;items_per_page=15" xr:uid="{60311AC2-99FE-604B-AB97-2E5BFD44B718}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{6A41141B-E7DF-5547-AE28-EE3F83ADEDC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data_Sources.xlsx
+++ b/Data_Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsey.huntzberry/Documents/R_Class_Meetup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelsey.huntzberry\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8C0C53-D8A2-324C-89B2-1BC14BE105AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3EC5D7-B233-4935-8134-04D41742FA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2020" windowWidth="27140" windowHeight="10200" xr2:uid="{9B5D6480-A5D3-4147-A11D-2FD3121FBF0A}"/>
+    <workbookView xWindow="5112" yWindow="3684" windowWidth="17280" windowHeight="9024" xr2:uid="{9B5D6480-A5D3-4147-A11D-2FD3121FBF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -129,6 +129,30 @@
   </si>
   <si>
     <t xml:space="preserve">Treatment Episodes Data Set (TEDS) Admissions from from Substance Abuse and Mental Health Services Administration (SAMHSA) </t>
+  </si>
+  <si>
+    <t>https://datacatalog.worldbank.org/dataset/talent-migration-linkedin-data</t>
+  </si>
+  <si>
+    <t>LinkedIn Talent Migration Data</t>
+  </si>
+  <si>
+    <t>public_use-industry-employment-growth.csv
+public_use-industry-skills-needs.csv
+public_use-skill-penetration.csv
+public_use-talent-migration-country.csv
+public_use-talent-migration-industry.csv
+public_use-talent-migration-skill.csv
+linkedin_to_isic_rev_4_industry_mapping.csv</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/krkirov/transparency-international-corruption-perception</t>
+  </si>
+  <si>
+    <t>2018_CPI_FullDataSet.csv</t>
+  </si>
+  <si>
+    <t>Corruption Percent Index (CPI)</t>
   </si>
 </sst>
 </file>
@@ -546,21 +570,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170CEBDC-9CA5-D648-A1CA-81412721BC1C}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="64" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="4"/>
+    <col min="4" max="16384" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -571,7 +595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -582,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -593,7 +617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -604,21 +628,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -629,28 +653,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -661,36 +685,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -706,11 +752,12 @@
     <hyperlink ref="C3" r:id="rId2" display="https://www.cdc.gov/drugoverdose/maps/rxrate-maps.html" xr:uid="{E1B6583F-4412-4846-BA3A-CF6AFC8253E5}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{BDCB7C96-8E49-D944-9B30-663F05AD6735}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{65CC9490-C6C1-E14C-9D5A-E66B3A8E04A4}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{3C685A89-3424-3C40-89E0-980E79DAF76A}"/>
+    <hyperlink ref="C14" r:id="rId5" xr:uid="{3C685A89-3424-3C40-89E0-980E79DAF76A}"/>
     <hyperlink ref="C11" r:id="rId6" xr:uid="{C467010A-2450-024F-B56E-BC63B3694ADC}"/>
-    <hyperlink ref="C13" r:id="rId7" display="https://www.samhsa.gov/data/all-reports?f%5b%5d=field_report_and_document_type:6461&amp;f%5b%5d=field_samhsa_survey:6511&amp;sort=field_date_printed_on_report&amp;order=desc&amp;items_per_page=15" xr:uid="{60311AC2-99FE-604B-AB97-2E5BFD44B718}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{6A41141B-E7DF-5547-AE28-EE3F83ADEDC0}"/>
+    <hyperlink ref="C15" r:id="rId7" display="https://www.samhsa.gov/data/all-reports?f%5b%5d=field_report_and_document_type:6461&amp;f%5b%5d=field_samhsa_survey:6511&amp;sort=field_date_printed_on_report&amp;order=desc&amp;items_per_page=15" xr:uid="{60311AC2-99FE-604B-AB97-2E5BFD44B718}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{6A41141B-E7DF-5547-AE28-EE3F83ADEDC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Data_Sources.xlsx
+++ b/Data_Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelsey.huntzberry\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsey.huntzberry/Documents/Classes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3EC5D7-B233-4935-8134-04D41742FA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F80CC2B3-EAEF-DB43-9036-EBF515A7E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="3684" windowWidth="17280" windowHeight="9024" xr2:uid="{9B5D6480-A5D3-4147-A11D-2FD3121FBF0A}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="27140" windowHeight="15260" xr2:uid="{9B5D6480-A5D3-4147-A11D-2FD3121FBF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,28 +131,22 @@
     <t xml:space="preserve">Treatment Episodes Data Set (TEDS) Admissions from from Substance Abuse and Mental Health Services Administration (SAMHSA) </t>
   </si>
   <si>
-    <t>https://datacatalog.worldbank.org/dataset/talent-migration-linkedin-data</t>
-  </si>
-  <si>
-    <t>LinkedIn Talent Migration Data</t>
-  </si>
-  <si>
-    <t>public_use-industry-employment-growth.csv
-public_use-industry-skills-needs.csv
-public_use-skill-penetration.csv
-public_use-talent-migration-country.csv
-public_use-talent-migration-industry.csv
-public_use-talent-migration-skill.csv
-linkedin_to_isic_rev_4_industry_mapping.csv</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/krkirov/transparency-international-corruption-perception</t>
-  </si>
-  <si>
-    <t>2018_CPI_FullDataSet.csv</t>
-  </si>
-  <si>
-    <t>Corruption Percent Index (CPI)</t>
+    <t>linear_model_data.csv</t>
+  </si>
+  <si>
+    <t>United States Census Bureau American FactFinder, IHME</t>
+  </si>
+  <si>
+    <t>http://ghdx.healthdata.org/record/ihme-data/united-states-cardiovascular-disease-mortality-rates-county-1980-2014, http://ghdx.healthdata.org/record/ihme-data/united-states-life-expectancy-and-age-specific-mortality-risk-county-1980-2014, https://factfinder.census.gov/faces/nav/jsf/pages/community_facts.xhtml</t>
+  </si>
+  <si>
+    <t>Kaggle</t>
+  </si>
+  <si>
+    <t>insurance_marketing_data.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kaggle.com/pankajjsh06/ibm-watson-marketing-customer-value-data </t>
   </si>
 </sst>
 </file>
@@ -226,14 +220,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -243,6 +234,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -253,7 +256,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,172 +575,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170CEBDC-9CA5-D648-A1CA-81412721BC1C}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="64" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.796875" style="4"/>
+    <col min="1" max="1" width="35.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="64" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -752,12 +755,13 @@
     <hyperlink ref="C3" r:id="rId2" display="https://www.cdc.gov/drugoverdose/maps/rxrate-maps.html" xr:uid="{E1B6583F-4412-4846-BA3A-CF6AFC8253E5}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{BDCB7C96-8E49-D944-9B30-663F05AD6735}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{65CC9490-C6C1-E14C-9D5A-E66B3A8E04A4}"/>
-    <hyperlink ref="C14" r:id="rId5" xr:uid="{3C685A89-3424-3C40-89E0-980E79DAF76A}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{3C685A89-3424-3C40-89E0-980E79DAF76A}"/>
     <hyperlink ref="C11" r:id="rId6" xr:uid="{C467010A-2450-024F-B56E-BC63B3694ADC}"/>
-    <hyperlink ref="C15" r:id="rId7" display="https://www.samhsa.gov/data/all-reports?f%5b%5d=field_report_and_document_type:6461&amp;f%5b%5d=field_samhsa_survey:6511&amp;sort=field_date_printed_on_report&amp;order=desc&amp;items_per_page=15" xr:uid="{60311AC2-99FE-604B-AB97-2E5BFD44B718}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{6A41141B-E7DF-5547-AE28-EE3F83ADEDC0}"/>
+    <hyperlink ref="C13" r:id="rId7" display="https://www.samhsa.gov/data/all-reports?f%5b%5d=field_report_and_document_type:6461&amp;f%5b%5d=field_samhsa_survey:6511&amp;sort=field_date_printed_on_report&amp;order=desc&amp;items_per_page=15" xr:uid="{60311AC2-99FE-604B-AB97-2E5BFD44B718}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{6A41141B-E7DF-5547-AE28-EE3F83ADEDC0}"/>
+    <hyperlink ref="C15" r:id="rId9" display="http://ghdx.healthdata.org/record/ihme-data/united-states-cardiovascular-disease-mortality-rates-county-1980-2014" xr:uid="{7F81E18A-2071-6247-BD33-096631749A14}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{637F2759-D0F2-9E41-BA46-537DC629D637}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Data_Sources.xlsx
+++ b/Data_Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsey.huntzberry/Documents/Classes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsey.huntzberry/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F80CC2B3-EAEF-DB43-9036-EBF515A7E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E647932F-487F-8546-AD85-0B8282679936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="27140" windowHeight="15260" xr2:uid="{9B5D6480-A5D3-4147-A11D-2FD3121FBF0A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.kaggle.com/pankajjsh06/ibm-watson-marketing-customer-value-data </t>
+  </si>
+  <si>
+    <t>train.csv</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/rossmann-store-sales/data</t>
   </si>
 </sst>
 </file>
@@ -220,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -237,13 +243,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -573,17 +576,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170CEBDC-9CA5-D648-A1CA-81412721BC1C}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="64" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -605,7 +608,7 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -616,7 +619,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -624,10 +627,10 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -635,24 +638,24 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -660,22 +663,22 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -684,7 +687,7 @@
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -695,7 +698,7 @@
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -706,7 +709,7 @@
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -717,7 +720,7 @@
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -728,7 +731,7 @@
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -741,6 +744,17 @@
       </c>
       <c r="C16" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -761,6 +775,7 @@
     <hyperlink ref="C14" r:id="rId8" xr:uid="{6A41141B-E7DF-5547-AE28-EE3F83ADEDC0}"/>
     <hyperlink ref="C15" r:id="rId9" display="http://ghdx.healthdata.org/record/ihme-data/united-states-cardiovascular-disease-mortality-rates-county-1980-2014" xr:uid="{7F81E18A-2071-6247-BD33-096631749A14}"/>
     <hyperlink ref="C16" r:id="rId10" xr:uid="{637F2759-D0F2-9E41-BA46-537DC629D637}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{AD404744-0012-3E4A-B45F-9263585BB357}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
